--- a/ExcelData/inputExcel.xlsx
+++ b/ExcelData/inputExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2407425\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2407425\eclipse-workspace\zzHackthon_Project\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E28E329-42DC-4E83-AEAB-BC507FC25C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23554E2-D0EC-4C6E-827A-C46CE2B50C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14A408BD-1EE0-47A0-A430-570439837066}"/>
   </bookViews>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Chennai</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Siruseri, Chennai</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -452,18 +452,18 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -489,7 +489,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">

--- a/ExcelData/inputExcel.xlsx
+++ b/ExcelData/inputExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2407425\eclipse-workspace\zzHackthon_Project\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23554E2-D0EC-4C6E-827A-C46CE2B50C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF333F70-DA8D-4ED6-B450-10394081666C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14A408BD-1EE0-47A0-A430-570439837066}"/>
+    <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7270" xr2:uid="{814AAABF-327F-48E9-BFB4-A9CD2B48744F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,13 +45,13 @@
     <t>Search Text</t>
   </si>
   <si>
-    <t>Car Wash Services</t>
-  </si>
-  <si>
     <t>Mobile Number</t>
   </si>
   <si>
-    <t>Siruseri, Chennai</t>
+    <t>Car washing Services</t>
+  </si>
+  <si>
+    <t>Chennai</t>
   </si>
 </sst>
 </file>
@@ -67,18 +67,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,17 +87,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,37 +422,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FCCDE3-D525-438B-9DD9-C00FE881DE0B}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6666DDAC-829B-4B57-926B-EE6C1E1592A2}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
-    <col min="2" max="2" width="26.08984375" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -475,30 +457,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A074E79B-D916-4DC0-B98B-2050F1596C68}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFBBF67-1F51-4E30-8F6C-6CE7442308FA}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
+      <c r="A1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>876716789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A2">
+        <v>876756453</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
